--- a/mechanical/astrowiring_diagram.xlsx
+++ b/mechanical/astrowiring_diagram.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Documents\School\2018-19\Spring\ECE 4990-001        IEEE Robotics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Documents\School\2018-19\Spring\ECE 4990-001        IEEE Robotics\ci_test\mechanical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8875A9E1-FB70-4A87-BEEE-FD1EB2F9AEBC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9446BDDC-8446-4FC5-A133-E1F4E68D9B1D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21660" yWindow="6240" windowWidth="13335" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -737,14 +737,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1048,11 +1048,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I2" s="35" t="s">
@@ -1065,10 +1065,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="32"/>
+      <c r="E3" s="33"/>
       <c r="I3" s="3" t="s">
         <v>78</v>
       </c>
@@ -1359,7 +1359,7 @@
       <c r="G14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="32" t="s">
         <v>80</v>
       </c>
       <c r="J14" s="2">
@@ -1559,22 +1559,22 @@
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="33"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="32"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
@@ -1645,11 +1645,11 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -1657,10 +1657,10 @@
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="32"/>
+      <c r="E35" s="33"/>
       <c r="H35" s="2" t="s">
         <v>115</v>
       </c>
@@ -1924,14 +1924,14 @@
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D51" s="33" t="s">
+      <c r="D51" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="E51" s="33"/>
+      <c r="E51" s="34"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D53" s="5"/>
@@ -1947,15 +1947,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="I2:K2"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D24:E25"/>
     <mergeCell ref="D51:E52"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
